--- a/biology/Zoologie/Garypus_realini/Garypus_realini.xlsx
+++ b/biology/Zoologie/Garypus_realini/Garypus_realini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garypus realini est une espèce de pseudoscorpions de la famille des Garypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Aruba[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Aruba,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur le littoral[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur le littoral.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,0 à 5,2 mm et les femelles de 5,6 à 6,2 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,0 à 5,2 mm et les femelles de 5,6 à 6,2 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus bonairensis realini par Wagenaar-Hummelinck en 1948. Elle est élevée au rang d'espèce par Harvey, Hillyer, Carvajal et Huey en 2020[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus bonairensis realini par Wagenaar-Hummelinck en 1948. Elle est élevée au rang d'espèce par Harvey, Hillyer, Carvajal et Huey en 2020.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Realino Janssens[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Realino Janssens.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Wagenaar-Hummelinck, 1948 : Studies on the fauna of Curaçao, Aruba, Bonaire and the Venezuelan Islands: no. 13. Pseudoscorpions of the genera Garypus, Pseudochthonius, Tyrannochthonius and Pachychitra. Natuurwetenschappelijke Studiekring voor Suriname en Curaçao, vol. 5, p. 29-77 (texte intégral).</t>
         </is>
